--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang3/04.TraBH/TBH210303_DLAnhVan.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang3/04.TraBH/TBH210303_DLAnhVan.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t xml:space="preserve">STT </t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t xml:space="preserve">                                Hà Nội, ngày 01 tháng 03 năm 2021</t>
+  </si>
+  <si>
+    <t>sim</t>
   </si>
 </sst>
 </file>
@@ -757,6 +760,45 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -809,45 +851,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1207,7 +1210,7 @@
   <dimension ref="A1:M64"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15:I15"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1227,77 +1230,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="54"/>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="45" t="s">
+      <c r="A1" s="67"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="47"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="60"/>
     </row>
     <row r="2" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="57"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="48" t="s">
+      <c r="A2" s="70"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="50"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="63"/>
     </row>
     <row r="3" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="57"/>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="48" t="s">
+      <c r="A3" s="70"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="50"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="63"/>
     </row>
     <row r="4" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="60"/>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="51" t="s">
+      <c r="A4" s="73"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="53"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="66"/>
     </row>
     <row r="5" spans="1:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="70" t="s">
+      <c r="A5" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="71"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="72"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="57"/>
     </row>
     <row r="6" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="23"/>
-      <c r="B6" s="69" t="s">
+      <c r="B6" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
       <c r="E6" s="17"/>
       <c r="F6" s="32"/>
       <c r="G6" s="12"/>
@@ -1306,58 +1309,58 @@
     </row>
     <row r="7" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="24"/>
-      <c r="B7" s="65" t="s">
+      <c r="B7" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="66"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="51"/>
     </row>
     <row r="8" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="25"/>
-      <c r="B8" s="63" t="s">
+      <c r="B8" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="64"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="49"/>
     </row>
     <row r="9" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="25"/>
-      <c r="B9" s="65" t="s">
+      <c r="B9" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="65"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="66"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="51"/>
       <c r="M9" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="26"/>
-      <c r="B10" s="67" t="s">
+      <c r="B10" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="67"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="67"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="68"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="53"/>
       <c r="L10" s="1" t="s">
         <v>12</v>
       </c>
@@ -1401,7 +1404,9 @@
       <c r="C12" s="30">
         <v>868183033815544</v>
       </c>
-      <c r="D12" s="2"/>
+      <c r="D12" s="28" t="s">
+        <v>28</v>
+      </c>
       <c r="E12" s="28" t="s">
         <v>25</v>
       </c>
@@ -1440,23 +1445,23 @@
       <c r="I14" s="7"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D15" s="74" t="s">
+      <c r="D15" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="74"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="74"/>
-      <c r="H15" s="74"/>
-      <c r="I15" s="74"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="75" t="s">
+      <c r="A16" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="75"/>
-      <c r="C16" s="75"/>
-      <c r="D16" s="75"/>
-      <c r="E16" s="75"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
       <c r="F16" s="35"/>
       <c r="G16" s="35"/>
       <c r="H16" s="40" t="s">
@@ -1509,43 +1514,43 @@
       <c r="I20" s="20"/>
     </row>
     <row r="22" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A22" s="73" t="s">
+      <c r="A22" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="73"/>
-      <c r="C22" s="73"/>
-      <c r="D22" s="73"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="73"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
       <c r="H22" s="39" t="s">
         <v>19</v>
       </c>
       <c r="I22" s="34"/>
     </row>
     <row r="25" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B25" s="73"/>
-      <c r="C25" s="73"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="45"/>
     </row>
     <row r="64" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D15:I15"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="A1:E4"/>
     <mergeCell ref="B8:I8"/>
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="B7:I7"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="A1:E4"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D15:I15"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A22:E22"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.51181102362204722" bottom="3.937007874015748E-2" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="84" orientation="landscape" r:id="rId1"/>
